--- a/data/trans_orig/P16A03-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A03-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0490817-C705-4C6A-A623-9A36F54FC70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C66301D-168A-420F-838D-F8217F5E2EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DD210B75-9477-47B6-AD35-B3EB52DB9B96}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5E8DCF64-F72D-4F98-9082-29E8AFC4C52E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="521">
   <si>
     <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -587,1093 +587,1021 @@
     <t>1,72%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
+    <t>0,61%</t>
   </si>
   <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
     <t>2,58%</t>
   </si>
   <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
   </si>
   <si>
     <t>97,42%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
   </si>
   <si>
     <t>3,47%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
   </si>
   <si>
     <t>96,53%</t>
   </si>
   <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
   </si>
   <si>
     <t>5,35%</t>
   </si>
   <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
   </si>
   <si>
     <t>94,65%</t>
   </si>
   <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
   </si>
   <si>
     <t>1,62%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
   </si>
   <si>
     <t>98,38%</t>
   </si>
   <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
   </si>
   <si>
     <t>3,3%</t>
   </si>
   <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
   </si>
   <si>
     <t>96,7%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
   </si>
 </sst>
 </file>
@@ -2085,7 +2013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565D5AE8-84B2-483C-8DF1-D2B21D2D090D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF67403-8400-4A12-8119-9B5496AD1223}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3616,7 +3544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5034C499-90B2-4183-9F4F-345956552C39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C54380-3477-4BF7-959E-AB34CCFF0B87}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3883,7 +3811,7 @@
         <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>112</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -3892,13 +3820,13 @@
         <v>29540</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
@@ -3907,13 +3835,13 @@
         <v>38236</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,13 +3856,13 @@
         <v>496831</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>122</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>453</v>
@@ -3943,13 +3871,13 @@
         <v>493191</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>920</v>
@@ -3958,13 +3886,13 @@
         <v>990022</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>101</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +3960,13 @@
         <v>4814</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -4047,13 +3975,13 @@
         <v>19348</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -4062,13 +3990,13 @@
         <v>24162</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,13 +4011,13 @@
         <v>318302</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>298</v>
@@ -4098,13 +4026,13 @@
         <v>320607</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>611</v>
@@ -4113,13 +4041,13 @@
         <v>638909</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4115,13 @@
         <v>11813</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H13" s="7">
         <v>45</v>
@@ -4202,13 +4130,13 @@
         <v>49225</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>56</v>
@@ -4220,10 +4148,10 @@
         <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,13 +4166,13 @@
         <v>652373</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="H14" s="7">
         <v>574</v>
@@ -4253,13 +4181,13 @@
         <v>618078</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M14" s="7">
         <v>1185</v>
@@ -4271,10 +4199,10 @@
         <v>27</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>141</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,13 +4270,13 @@
         <v>4170</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -4357,13 +4285,13 @@
         <v>20912</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -4372,13 +4300,13 @@
         <v>25082</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>55</v>
+        <v>231</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,13 +4321,13 @@
         <v>208448</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H17" s="7">
         <v>193</v>
@@ -4408,13 +4336,13 @@
         <v>198679</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M17" s="7">
         <v>385</v>
@@ -4423,13 +4351,13 @@
         <v>407127</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>65</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,7 +4431,7 @@
         <v>90</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -4512,13 +4440,13 @@
         <v>14076</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -4527,13 +4455,13 @@
         <v>16068</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>249</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,7 +4479,7 @@
         <v>43</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>100</v>
@@ -4563,13 +4491,13 @@
         <v>265064</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>513</v>
@@ -4578,13 +4506,13 @@
         <v>537053</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>253</v>
+        <v>27</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,13 +4580,13 @@
         <v>8573</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -4667,13 +4595,13 @@
         <v>44466</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="M22" s="7">
         <v>49</v>
@@ -4685,10 +4613,10 @@
         <v>110</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +4631,13 @@
         <v>654215</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H23" s="7">
         <v>595</v>
@@ -4718,13 +4646,13 @@
         <v>649387</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M23" s="7">
         <v>1205</v>
@@ -4736,10 +4664,10 @@
         <v>118</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4735,13 @@
         <v>5498</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -4822,13 +4750,13 @@
         <v>35463</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M25" s="7">
         <v>37</v>
@@ -4837,13 +4765,13 @@
         <v>40961</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>32</v>
+        <v>271</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,13 +4786,13 @@
         <v>771474</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H26" s="7">
         <v>723</v>
@@ -4873,13 +4801,13 @@
         <v>786057</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="M26" s="7">
         <v>1433</v>
@@ -4888,13 +4816,13 @@
         <v>1557531</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>41</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4962,13 +4890,13 @@
         <v>45556</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>286</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H28" s="7">
         <v>195</v>
@@ -4977,13 +4905,13 @@
         <v>213030</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M28" s="7">
         <v>235</v>
@@ -4995,10 +4923,10 @@
         <v>77</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>291</v>
+        <v>197</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,13 +4941,13 @@
         <v>3373632</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>295</v>
+        <v>23</v>
       </c>
       <c r="H29" s="7">
         <v>3090</v>
@@ -5028,13 +4956,13 @@
         <v>3331064</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="M29" s="7">
         <v>6252</v>
@@ -5046,10 +4974,10 @@
         <v>87</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,7 +5057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC21414-04A1-4771-A847-7B4F3F497898}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AECCDEB-B879-4CDA-B1C0-91810543989F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5146,7 +5074,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5253,13 +5181,13 @@
         <v>3119</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>303</v>
+        <v>266</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -5268,13 +5196,13 @@
         <v>20762</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -5283,13 +5211,13 @@
         <v>23881</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>310</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,13 +5232,13 @@
         <v>290642</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="H5" s="7">
         <v>258</v>
@@ -5319,13 +5247,13 @@
         <v>267941</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="M5" s="7">
         <v>521</v>
@@ -5334,13 +5262,13 @@
         <v>558583</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>318</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,13 +5336,13 @@
         <v>6044</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>321</v>
+        <v>89</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -5426,10 +5354,10 @@
         <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>323</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -5438,13 +5366,13 @@
         <v>17706</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5387,13 @@
         <v>496531</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>329</v>
+        <v>98</v>
       </c>
       <c r="H8" s="7">
         <v>473</v>
@@ -5477,10 +5405,10 @@
         <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>330</v>
+        <v>122</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="M8" s="7">
         <v>942</v>
@@ -5489,13 +5417,13 @@
         <v>1007953</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,13 +5491,13 @@
         <v>1590</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>90</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -5578,13 +5506,13 @@
         <v>11750</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>222</v>
+        <v>321</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>335</v>
+        <v>211</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -5593,13 +5521,13 @@
         <v>13340</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,10 +5542,10 @@
         <v>316975</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>100</v>
@@ -5629,13 +5557,13 @@
         <v>324559</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>230</v>
+        <v>327</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>342</v>
+        <v>218</v>
       </c>
       <c r="M11" s="7">
         <v>654</v>
@@ -5644,13 +5572,13 @@
         <v>641534</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,13 +5646,13 @@
         <v>5775</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -5733,13 +5661,13 @@
         <v>29888</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>245</v>
+        <v>335</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -5748,13 +5676,13 @@
         <v>35664</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,13 +5697,13 @@
         <v>364189</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="H14" s="7">
         <v>330</v>
@@ -5784,13 +5712,13 @@
         <v>357395</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>250</v>
+        <v>344</v>
       </c>
       <c r="M14" s="7">
         <v>678</v>
@@ -5799,13 +5727,13 @@
         <v>721583</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,13 +5801,13 @@
         <v>891</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>257</v>
+        <v>349</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5888,13 +5816,13 @@
         <v>7089</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>255</v>
+        <v>351</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -5903,13 +5831,13 @@
         <v>7980</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,10 +5852,10 @@
         <v>210330</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>264</v>
+        <v>357</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>100</v>
@@ -5939,13 +5867,13 @@
         <v>211498</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>263</v>
+        <v>360</v>
       </c>
       <c r="M17" s="7">
         <v>427</v>
@@ -5954,13 +5882,13 @@
         <v>421828</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6028,13 +5956,13 @@
         <v>2896</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>95</v>
+        <v>365</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -6043,13 +5971,13 @@
         <v>10311</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>376</v>
+        <v>244</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>377</v>
+        <v>14</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -6058,13 +5986,13 @@
         <v>13207</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6079,10 +6007,10 @@
         <v>260227</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>104</v>
+        <v>371</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>62</v>
@@ -6094,13 +6022,13 @@
         <v>262804</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>383</v>
+        <v>24</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>384</v>
+        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>509</v>
@@ -6109,13 +6037,13 @@
         <v>523031</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6186,10 +6114,10 @@
         <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -6198,13 +6126,13 @@
         <v>25942</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
@@ -6213,13 +6141,13 @@
         <v>42179</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>394</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6237,10 +6165,10 @@
         <v>152</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="H23" s="7">
         <v>622</v>
@@ -6249,13 +6177,13 @@
         <v>665352</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="M23" s="7">
         <v>1187</v>
@@ -6264,13 +6192,13 @@
         <v>1305673</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>403</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6338,13 +6266,13 @@
         <v>6791</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>161</v>
+        <v>392</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -6353,13 +6281,13 @@
         <v>29680</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>11</v>
+        <v>379</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>406</v>
+        <v>335</v>
       </c>
       <c r="M25" s="7">
         <v>34</v>
@@ -6368,13 +6296,13 @@
         <v>36471</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>408</v>
+        <v>267</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6389,13 +6317,13 @@
         <v>771792</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>396</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="H26" s="7">
         <v>728</v>
@@ -6404,13 +6332,13 @@
         <v>796487</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>412</v>
+        <v>344</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>21</v>
+        <v>387</v>
       </c>
       <c r="M26" s="7">
         <v>1471</v>
@@ -6419,13 +6347,13 @@
         <v>1568279</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>414</v>
+        <v>388</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6493,13 +6421,13 @@
         <v>43343</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>418</v>
+        <v>108</v>
       </c>
       <c r="H28" s="7">
         <v>137</v>
@@ -6508,13 +6436,13 @@
         <v>147085</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>420</v>
+        <v>53</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="M28" s="7">
         <v>180</v>
@@ -6523,13 +6451,13 @@
         <v>190428</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>304</v>
+        <v>406</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6544,13 +6472,13 @@
         <v>3351007</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>424</v>
+        <v>117</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="H29" s="7">
         <v>3201</v>
@@ -6559,13 +6487,13 @@
         <v>3397457</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>428</v>
+        <v>61</v>
       </c>
       <c r="M29" s="7">
         <v>6389</v>
@@ -6574,13 +6502,13 @@
         <v>6748464</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>312</v>
+        <v>412</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6660,7 +6588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC48FA72-1796-45B2-A863-F92260DBCF87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF608024-C7A8-4DC0-8AFD-7A178BEBCCA1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6677,7 +6605,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6784,13 +6712,13 @@
         <v>4403</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>432</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -6799,13 +6727,13 @@
         <v>22148</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
@@ -6814,13 +6742,13 @@
         <v>26551</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6835,13 +6763,13 @@
         <v>255895</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>438</v>
+        <v>205</v>
       </c>
       <c r="H5" s="7">
         <v>496</v>
@@ -6850,13 +6778,13 @@
         <v>249255</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="M5" s="7">
         <v>821</v>
@@ -6865,13 +6793,13 @@
         <v>505149</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>426</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>209</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6939,13 +6867,13 @@
         <v>5684</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>391</v>
+        <v>428</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -6954,13 +6882,13 @@
         <v>14305</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>431</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
@@ -6969,13 +6897,13 @@
         <v>19989</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6990,13 +6918,13 @@
         <v>512543</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="H8" s="7">
         <v>695</v>
@@ -7005,13 +6933,13 @@
         <v>538911</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>437</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="M8" s="7">
         <v>1071</v>
@@ -7020,13 +6948,13 @@
         <v>1051454</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7094,13 +7022,13 @@
         <v>13931</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>453</v>
+        <v>382</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>309</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -7109,13 +7037,13 @@
         <v>29234</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -7124,13 +7052,13 @@
         <v>43165</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>446</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7145,13 +7073,13 @@
         <v>307789</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>460</v>
+        <v>389</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>46</v>
+        <v>315</v>
       </c>
       <c r="H11" s="7">
         <v>488</v>
@@ -7160,13 +7088,13 @@
         <v>344050</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="M11" s="7">
         <v>830</v>
@@ -7175,13 +7103,13 @@
         <v>651838</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>139</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7252,10 +7180,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>467</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -7264,13 +7192,13 @@
         <v>10619</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>470</v>
+        <v>35</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -7279,13 +7207,13 @@
         <v>14504</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>367</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7303,10 +7231,10 @@
         <v>60</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>473</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="H14" s="7">
         <v>581</v>
@@ -7315,13 +7243,13 @@
         <v>417581</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>475</v>
+        <v>44</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="M14" s="7">
         <v>869</v>
@@ -7330,13 +7258,13 @@
         <v>735936</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>372</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7404,13 +7332,13 @@
         <v>6123</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>479</v>
+        <v>333</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>96</v>
+        <v>465</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -7419,13 +7347,13 @@
         <v>20324</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>377</v>
+        <v>468</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -7434,13 +7362,13 @@
         <v>26447</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7455,13 +7383,13 @@
         <v>190625</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>486</v>
+        <v>341</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>474</v>
       </c>
       <c r="H17" s="7">
         <v>446</v>
@@ -7470,13 +7398,13 @@
         <v>211579</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>383</v>
+        <v>477</v>
       </c>
       <c r="M17" s="7">
         <v>715</v>
@@ -7485,13 +7413,13 @@
         <v>402204</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7562,10 +7490,10 @@
         <v>162</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="H19" s="7">
         <v>40</v>
@@ -7574,13 +7502,13 @@
         <v>18917</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>494</v>
+        <v>285</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="M19" s="7">
         <v>54</v>
@@ -7592,10 +7520,10 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>497</v>
+        <v>186</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7613,10 +7541,10 @@
         <v>170</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="H20" s="7">
         <v>420</v>
@@ -7625,13 +7553,13 @@
         <v>256705</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>499</v>
+        <v>290</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="M20" s="7">
         <v>777</v>
@@ -7643,10 +7571,10 @@
         <v>22</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>383</v>
+        <v>346</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>502</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7714,13 +7642,13 @@
         <v>27551</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>504</v>
+        <v>162</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="H22" s="7">
         <v>92</v>
@@ -7729,13 +7657,13 @@
         <v>63776</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="M22" s="7">
         <v>123</v>
@@ -7744,13 +7672,13 @@
         <v>91327</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>492</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7765,13 +7693,13 @@
         <v>600203</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>511</v>
+        <v>452</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>512</v>
+        <v>170</v>
       </c>
       <c r="H23" s="7">
         <v>868</v>
@@ -7780,13 +7708,13 @@
         <v>740427</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>466</v>
+        <v>495</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="M23" s="7">
         <v>1436</v>
@@ -7795,13 +7723,13 @@
         <v>1340630</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7869,13 +7797,13 @@
         <v>2041</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>90</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
@@ -7884,13 +7812,13 @@
         <v>16343</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="M25" s="7">
         <v>25</v>
@@ -7899,13 +7827,13 @@
         <v>18384</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>522</v>
+        <v>312</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>109</v>
+        <v>506</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7920,10 +7848,10 @@
         <v>857387</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>100</v>
@@ -7935,13 +7863,13 @@
         <v>848688</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="M26" s="7">
         <v>1797</v>
@@ -7950,13 +7878,13 @@
         <v>1706075</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>529</v>
+        <v>319</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>119</v>
+        <v>514</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8024,13 +7952,13 @@
         <v>71542</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>531</v>
+        <v>349</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>533</v>
+        <v>428</v>
       </c>
       <c r="H28" s="7">
         <v>328</v>
@@ -8042,10 +7970,10 @@
         <v>72</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>534</v>
+        <v>40</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="M28" s="7">
         <v>417</v>
@@ -8054,13 +7982,13 @@
         <v>267209</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>537</v>
+        <v>431</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8072,16 +8000,16 @@
         <v>3285</v>
       </c>
       <c r="D29" s="7">
-        <v>3312094</v>
+        <v>3312095</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>538</v>
+        <v>357</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>539</v>
+        <v>434</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="H29" s="7">
         <v>5031</v>
@@ -8093,10 +8021,10 @@
         <v>80</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>542</v>
+        <v>48</v>
       </c>
       <c r="M29" s="7">
         <v>8316</v>
@@ -8105,13 +8033,13 @@
         <v>6919289</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>543</v>
+        <v>437</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8123,7 +8051,7 @@
         <v>3374</v>
       </c>
       <c r="D30" s="7">
-        <v>3383636</v>
+        <v>3383637</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16A03-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A03-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C66301D-168A-420F-838D-F8217F5E2EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8400CEE5-8E3C-478A-B680-BECB27F44C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5E8DCF64-F72D-4F98-9082-29E8AFC4C52E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FCBFA4B6-F5A1-4393-943E-5682146EE0D7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="537">
   <si>
     <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,1531 +77,1579 @@
     <t>2,35%</t>
   </si>
   <si>
-    <t>0,96%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
   </si>
   <si>
     <t>4,86%</t>
   </si>
   <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,65%</t>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
   </si>
   <si>
     <t>95,14%</t>
   </si>
   <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
   </si>
   <si>
     <t>4,45%</t>
   </si>
   <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
   </si>
   <si>
     <t>95,55%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
   </si>
 </sst>
 </file>
@@ -2013,7 +2061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF67403-8400-4A12-8119-9B5496AD1223}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51072BFD-7A87-4F55-9394-DC9F18E95F42}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2477,13 +2525,13 @@
         <v>21714</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2498,13 +2546,13 @@
         <v>315001</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>316</v>
@@ -2513,13 +2561,13 @@
         <v>317543</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>623</v>
@@ -2528,13 +2576,13 @@
         <v>632544</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,7 +2638,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2602,13 +2650,13 @@
         <v>11402</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -2617,13 +2665,13 @@
         <v>25314</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -2632,13 +2680,13 @@
         <v>36716</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2653,13 +2701,13 @@
         <v>347269</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>357</v>
@@ -2668,13 +2716,13 @@
         <v>346142</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>707</v>
@@ -2683,13 +2731,13 @@
         <v>693411</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,7 +2793,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2757,13 +2805,13 @@
         <v>895</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -2772,13 +2820,13 @@
         <v>10889</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -2787,13 +2835,13 @@
         <v>11784</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,13 +2856,13 @@
         <v>202413</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>188</v>
@@ -2823,13 +2871,13 @@
         <v>196779</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>393</v>
@@ -2838,13 +2886,13 @@
         <v>399192</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,7 +2948,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2912,13 +2960,13 @@
         <v>4752</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -2927,13 +2975,13 @@
         <v>18164</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>23</v>
@@ -2942,13 +2990,13 @@
         <v>22916</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,13 +3011,13 @@
         <v>266059</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>252</v>
@@ -2978,13 +3026,13 @@
         <v>259980</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>513</v>
@@ -2993,13 +3041,13 @@
         <v>526039</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,7 +3103,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3067,13 +3115,13 @@
         <v>18504</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -3082,13 +3130,13 @@
         <v>41532</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -3097,13 +3145,13 @@
         <v>60036</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,13 +3166,13 @@
         <v>596523</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>581</v>
@@ -3133,13 +3181,13 @@
         <v>596687</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>1161</v>
@@ -3148,13 +3196,13 @@
         <v>1193210</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,7 +3258,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3222,13 +3270,13 @@
         <v>18380</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -3237,13 +3285,13 @@
         <v>26266</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>44</v>
@@ -3252,13 +3300,13 @@
         <v>44646</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,13 +3321,13 @@
         <v>724397</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>719</v>
@@ -3288,13 +3336,13 @@
         <v>757245</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M26" s="7">
         <v>1436</v>
@@ -3303,7 +3351,7 @@
         <v>1481642</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>158</v>
@@ -3395,10 +3443,10 @@
         <v>163</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M28" s="7">
         <v>247</v>
@@ -3407,13 +3455,13 @@
         <v>252963</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,13 +3476,13 @@
         <v>3202248</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>3119</v>
@@ -3443,28 +3491,28 @@
         <v>3199512</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>27</v>
       </c>
       <c r="M29" s="7">
         <v>6263</v>
       </c>
       <c r="N29" s="7">
-        <v>6401759</v>
+        <v>6401760</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3506,7 +3554,7 @@
         <v>6510</v>
       </c>
       <c r="N30" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3520,7 +3568,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3544,7 +3592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C54380-3477-4BF7-959E-AB34CCFF0B87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77860C1-FE9D-4427-8F40-84A0744CF022}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3561,7 +3609,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3666,39 +3714,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,39 +3759,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,39 +3804,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,13 +3853,13 @@
         <v>8696</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -3820,13 +3868,13 @@
         <v>29540</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
@@ -3835,13 +3883,13 @@
         <v>38236</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,10 +3907,10 @@
         <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>122</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>453</v>
@@ -3871,13 +3919,13 @@
         <v>493191</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>920</v>
@@ -3886,13 +3934,13 @@
         <v>990022</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>101</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,13 +4008,13 @@
         <v>4814</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -3975,13 +4023,13 @@
         <v>19348</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -3990,13 +4038,13 @@
         <v>24162</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,10 +4059,10 @@
         <v>318302</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>205</v>
@@ -4044,7 +4092,7 @@
         <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>210</v>
@@ -4103,7 +4151,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4151,7 +4199,7 @@
         <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>134</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,13 +4214,13 @@
         <v>652373</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>574</v>
@@ -4181,13 +4229,13 @@
         <v>618078</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>1185</v>
@@ -4199,10 +4247,10 @@
         <v>27</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,7 +4306,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4270,13 +4318,13 @@
         <v>4170</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>225</v>
+        <v>39</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -4285,10 +4333,10 @@
         <v>20912</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>229</v>
@@ -4321,13 +4369,13 @@
         <v>208448</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H17" s="7">
         <v>193</v>
@@ -4336,13 +4384,13 @@
         <v>198679</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>236</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="M17" s="7">
         <v>385</v>
@@ -4351,13 +4399,13 @@
         <v>407127</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,7 +4461,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4425,13 +4473,13 @@
         <v>1993</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>33</v>
+        <v>239</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>91</v>
+        <v>240</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -4443,10 +4491,10 @@
         <v>241</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>95</v>
+        <v>242</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -4455,13 +4503,13 @@
         <v>16068</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>17</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,13 +4524,13 @@
         <v>271988</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>43</v>
+        <v>247</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>99</v>
+        <v>248</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>254</v>
@@ -4491,13 +4539,13 @@
         <v>265064</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>251</v>
       </c>
       <c r="M20" s="7">
         <v>513</v>
@@ -4506,13 +4554,13 @@
         <v>537053</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>27</v>
+        <v>253</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4568,7 +4616,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4580,13 +4628,13 @@
         <v>8573</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -4595,13 +4643,13 @@
         <v>44466</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="M22" s="7">
         <v>49</v>
@@ -4610,13 +4658,13 @@
         <v>53039</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>110</v>
+        <v>261</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,13 +4679,13 @@
         <v>654215</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="H23" s="7">
         <v>595</v>
@@ -4646,13 +4694,13 @@
         <v>649387</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="M23" s="7">
         <v>1205</v>
@@ -4661,13 +4709,13 @@
         <v>1303602</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>118</v>
+        <v>270</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4723,7 +4771,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4735,13 +4783,13 @@
         <v>5498</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>265</v>
+        <v>33</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -4750,13 +4798,13 @@
         <v>35463</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>268</v>
+        <v>167</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>269</v>
+        <v>38</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="M25" s="7">
         <v>37</v>
@@ -4765,13 +4813,13 @@
         <v>40961</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4834,13 @@
         <v>771474</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>273</v>
+        <v>43</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="H26" s="7">
         <v>723</v>
@@ -4801,13 +4849,13 @@
         <v>786057</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>276</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>278</v>
+        <v>47</v>
       </c>
       <c r="M26" s="7">
         <v>1433</v>
@@ -4816,13 +4864,13 @@
         <v>1557531</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,13 +4938,13 @@
         <v>45556</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>286</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="H28" s="7">
         <v>195</v>
@@ -4905,13 +4953,13 @@
         <v>213030</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>285</v>
+        <v>14</v>
       </c>
       <c r="M28" s="7">
         <v>235</v>
@@ -4920,13 +4968,13 @@
         <v>258585</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>197</v>
+        <v>291</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,13 +4989,13 @@
         <v>3373632</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="H29" s="7">
         <v>3090</v>
@@ -4956,28 +5004,28 @@
         <v>3331064</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="M29" s="7">
         <v>6252</v>
       </c>
       <c r="N29" s="7">
-        <v>6704697</v>
+        <v>6704696</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>87</v>
+        <v>298</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>204</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,7 +5067,7 @@
         <v>6487</v>
       </c>
       <c r="N30" s="7">
-        <v>6963282</v>
+        <v>6963281</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5033,7 +5081,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5057,7 +5105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AECCDEB-B879-4CDA-B1C0-91810543989F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA571891-957D-45D2-AB8F-533A15EA3955}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5074,7 +5122,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5181,13 +5229,13 @@
         <v>3119</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -5196,13 +5244,13 @@
         <v>20762</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -5211,13 +5259,13 @@
         <v>23881</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>134</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,13 +5280,13 @@
         <v>290642</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="H5" s="7">
         <v>258</v>
@@ -5247,13 +5295,13 @@
         <v>267941</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="M5" s="7">
         <v>521</v>
@@ -5262,13 +5310,13 @@
         <v>558583</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>296</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,13 +5384,13 @@
         <v>6044</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>89</v>
+        <v>319</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -5351,13 +5399,13 @@
         <v>11662</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>321</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -5366,13 +5414,13 @@
         <v>17706</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>313</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,13 +5435,13 @@
         <v>496531</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>98</v>
+        <v>327</v>
       </c>
       <c r="H8" s="7">
         <v>473</v>
@@ -5402,13 +5450,13 @@
         <v>511422</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>328</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="M8" s="7">
         <v>942</v>
@@ -5417,13 +5465,13 @@
         <v>1007953</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>318</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5491,13 +5539,13 @@
         <v>1590</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>108</v>
+        <v>333</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -5506,13 +5554,13 @@
         <v>11750</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>211</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -5521,13 +5569,13 @@
         <v>13340</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5542,13 +5590,13 @@
         <v>316975</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>117</v>
+        <v>340</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H11" s="7">
         <v>321</v>
@@ -5557,13 +5605,13 @@
         <v>324559</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M11" s="7">
         <v>654</v>
@@ -5572,13 +5620,13 @@
         <v>641534</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,7 +5682,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5646,13 +5694,13 @@
         <v>5775</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -5661,13 +5709,13 @@
         <v>29888</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>335</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -5676,13 +5724,13 @@
         <v>35664</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,13 +5745,13 @@
         <v>364189</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="H14" s="7">
         <v>330</v>
@@ -5712,13 +5760,13 @@
         <v>357395</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>344</v>
+        <v>98</v>
       </c>
       <c r="M14" s="7">
         <v>678</v>
@@ -5727,13 +5775,13 @@
         <v>721583</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5789,7 +5837,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5801,13 +5849,13 @@
         <v>891</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>349</v>
+        <v>146</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5816,13 +5864,13 @@
         <v>7089</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -5831,13 +5879,13 @@
         <v>7980</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5852,13 +5900,13 @@
         <v>210330</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>357</v>
+        <v>156</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>216</v>
@@ -5867,13 +5915,13 @@
         <v>211498</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="M17" s="7">
         <v>427</v>
@@ -5882,13 +5930,13 @@
         <v>421828</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5944,7 +5992,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5956,13 +6004,13 @@
         <v>2896</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -5971,13 +6019,13 @@
         <v>10311</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>244</v>
+        <v>379</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>14</v>
+        <v>380</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -5986,13 +6034,13 @@
         <v>13207</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>369</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6007,13 +6055,13 @@
         <v>260227</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>253</v>
@@ -6022,13 +6070,13 @@
         <v>262804</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>24</v>
+        <v>386</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>387</v>
       </c>
       <c r="M20" s="7">
         <v>509</v>
@@ -6037,13 +6085,13 @@
         <v>523031</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>374</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6099,7 +6147,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6111,13 +6159,13 @@
         <v>16236</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -6126,13 +6174,13 @@
         <v>25942</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
@@ -6141,13 +6189,13 @@
         <v>42179</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6162,13 +6210,13 @@
         <v>640322</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="H23" s="7">
         <v>622</v>
@@ -6177,13 +6225,13 @@
         <v>665352</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="M23" s="7">
         <v>1187</v>
@@ -6192,13 +6240,13 @@
         <v>1305673</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6254,7 +6302,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6266,13 +6314,13 @@
         <v>6791</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -6281,13 +6329,13 @@
         <v>29680</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>379</v>
+        <v>408</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>335</v>
+        <v>409</v>
       </c>
       <c r="M25" s="7">
         <v>34</v>
@@ -6296,13 +6344,13 @@
         <v>36471</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>267</v>
+        <v>411</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>381</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6317,13 +6365,13 @@
         <v>771792</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="H26" s="7">
         <v>728</v>
@@ -6332,13 +6380,13 @@
         <v>796487</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>344</v>
+        <v>417</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>387</v>
+        <v>418</v>
       </c>
       <c r="M26" s="7">
         <v>1471</v>
@@ -6347,13 +6395,13 @@
         <v>1568279</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>388</v>
+        <v>420</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>274</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6421,13 +6469,13 @@
         <v>43343</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>108</v>
+        <v>245</v>
       </c>
       <c r="H28" s="7">
         <v>137</v>
@@ -6436,13 +6484,13 @@
         <v>147085</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>402</v>
+        <v>106</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>53</v>
+        <v>338</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="M28" s="7">
         <v>180</v>
@@ -6451,13 +6499,13 @@
         <v>190428</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>406</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6472,13 +6520,13 @@
         <v>3351007</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>117</v>
+        <v>254</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="H29" s="7">
         <v>3201</v>
@@ -6487,13 +6535,13 @@
         <v>3397457</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>409</v>
+        <v>114</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>61</v>
+        <v>344</v>
       </c>
       <c r="M29" s="7">
         <v>6389</v>
@@ -6502,13 +6550,13 @@
         <v>6748464</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6564,7 +6612,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6588,7 +6636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF608024-C7A8-4DC0-8AFD-7A178BEBCCA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1A5133-D837-4954-899F-3C67F018F924}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6605,7 +6653,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6712,13 +6760,13 @@
         <v>4403</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>217</v>
+        <v>433</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -6727,13 +6775,13 @@
         <v>22148</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
@@ -6742,13 +6790,13 @@
         <v>26551</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6763,10 +6811,10 @@
         <v>255895</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>224</v>
+        <v>438</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>205</v>
@@ -6778,13 +6826,13 @@
         <v>249255</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="M5" s="7">
         <v>821</v>
@@ -6793,13 +6841,13 @@
         <v>505149</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>87</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6867,13 +6915,13 @@
         <v>5684</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>428</v>
+        <v>186</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -6882,13 +6930,13 @@
         <v>14305</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>429</v>
+        <v>320</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>430</v>
+        <v>274</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
@@ -6897,13 +6945,13 @@
         <v>19989</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>433</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6918,13 +6966,13 @@
         <v>512543</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>434</v>
+        <v>196</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="H8" s="7">
         <v>695</v>
@@ -6933,13 +6981,13 @@
         <v>538911</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>436</v>
+        <v>326</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>438</v>
+        <v>279</v>
       </c>
       <c r="M8" s="7">
         <v>1071</v>
@@ -6948,13 +6996,13 @@
         <v>1051454</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>440</v>
+        <v>169</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7022,13 +7070,13 @@
         <v>13931</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>382</v>
+        <v>449</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>309</v>
+        <v>450</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -7037,13 +7085,13 @@
         <v>29234</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -7052,13 +7100,13 @@
         <v>43165</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7073,13 +7121,13 @@
         <v>307789</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>389</v>
+        <v>458</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>315</v>
+        <v>460</v>
       </c>
       <c r="H11" s="7">
         <v>488</v>
@@ -7088,13 +7136,13 @@
         <v>344050</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="M11" s="7">
         <v>830</v>
@@ -7103,13 +7151,13 @@
         <v>651838</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7165,7 +7213,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7180,10 +7228,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>433</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -7192,10 +7240,10 @@
         <v>10619</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>35</v>
@@ -7207,13 +7255,13 @@
         <v>14504</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>167</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7228,13 +7276,13 @@
         <v>318355</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>438</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="H14" s="7">
         <v>581</v>
@@ -7243,13 +7291,13 @@
         <v>417581</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="M14" s="7">
         <v>869</v>
@@ -7258,13 +7306,13 @@
         <v>735936</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>177</v>
+        <v>477</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7320,7 +7368,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7332,13 +7380,13 @@
         <v>6123</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>333</v>
+        <v>479</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>465</v>
+        <v>411</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -7347,13 +7395,13 @@
         <v>20324</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -7362,13 +7410,13 @@
         <v>26447</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7383,13 +7431,13 @@
         <v>190625</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>341</v>
+        <v>487</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>474</v>
+        <v>421</v>
       </c>
       <c r="H17" s="7">
         <v>446</v>
@@ -7398,13 +7446,13 @@
         <v>211579</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="M17" s="7">
         <v>715</v>
@@ -7413,13 +7461,13 @@
         <v>402204</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7475,7 +7523,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7487,13 +7535,13 @@
         <v>7925</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>162</v>
+        <v>495</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>430</v>
+        <v>274</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="H19" s="7">
         <v>40</v>
@@ -7502,13 +7550,13 @@
         <v>18917</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>285</v>
+        <v>497</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="M19" s="7">
         <v>54</v>
@@ -7517,13 +7565,13 @@
         <v>26842</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>13</v>
+        <v>500</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>339</v>
+        <v>501</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7538,13 +7586,13 @@
         <v>269298</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>170</v>
+        <v>502</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>438</v>
+        <v>279</v>
       </c>
       <c r="H20" s="7">
         <v>420</v>
@@ -7553,13 +7601,13 @@
         <v>256705</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>290</v>
+        <v>504</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="M20" s="7">
         <v>777</v>
@@ -7568,13 +7616,13 @@
         <v>526003</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>22</v>
+        <v>507</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>346</v>
+        <v>508</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7630,7 +7678,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7642,13 +7690,13 @@
         <v>27551</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>487</v>
+        <v>509</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>162</v>
+        <v>495</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="H22" s="7">
         <v>92</v>
@@ -7657,13 +7705,13 @@
         <v>63776</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>488</v>
+        <v>510</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>489</v>
+        <v>72</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="M22" s="7">
         <v>123</v>
@@ -7672,13 +7720,13 @@
         <v>91327</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>491</v>
+        <v>353</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>492</v>
+        <v>259</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7693,13 +7741,13 @@
         <v>600203</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>170</v>
+        <v>502</v>
       </c>
       <c r="H23" s="7">
         <v>868</v>
@@ -7708,13 +7756,13 @@
         <v>740427</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>496</v>
+        <v>515</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>497</v>
+        <v>82</v>
       </c>
       <c r="M23" s="7">
         <v>1436</v>
@@ -7723,13 +7771,13 @@
         <v>1340630</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>498</v>
+        <v>360</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>500</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7785,7 +7833,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7797,13 +7845,13 @@
         <v>2041</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
@@ -7812,13 +7860,13 @@
         <v>16343</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>503</v>
+        <v>69</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="M25" s="7">
         <v>25</v>
@@ -7827,13 +7875,13 @@
         <v>18384</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>312</v>
+        <v>521</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7848,13 +7896,13 @@
         <v>857387</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H26" s="7">
         <v>1037</v>
@@ -7863,13 +7911,13 @@
         <v>848688</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>510</v>
+        <v>79</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="M26" s="7">
         <v>1797</v>
@@ -7878,13 +7926,13 @@
         <v>1706075</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>319</v>
+        <v>528</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7952,13 +8000,13 @@
         <v>71542</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>349</v>
+        <v>89</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>515</v>
+        <v>245</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>428</v>
+        <v>186</v>
       </c>
       <c r="H28" s="7">
         <v>328</v>
@@ -7967,13 +8015,13 @@
         <v>195666</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>72</v>
+        <v>531</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>40</v>
+        <v>532</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="M28" s="7">
         <v>417</v>
@@ -7982,13 +8030,13 @@
         <v>267209</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>517</v>
+        <v>200</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8003,13 +8051,13 @@
         <v>3312095</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>357</v>
+        <v>96</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>434</v>
+        <v>196</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>518</v>
+        <v>254</v>
       </c>
       <c r="H29" s="7">
         <v>5031</v>
@@ -8018,13 +8066,13 @@
         <v>3607196</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>80</v>
+        <v>534</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>48</v>
+        <v>536</v>
       </c>
       <c r="M29" s="7">
         <v>8316</v>
@@ -8033,13 +8081,13 @@
         <v>6919289</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>520</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8095,7 +8143,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A03-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A03-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8400CEE5-8E3C-478A-B680-BECB27F44C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2220BDDD-5087-42FD-AE54-9CB6DCF092A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FCBFA4B6-F5A1-4393-943E-5682146EE0D7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{88E64F1C-3A22-408E-82AF-95B7824F4294}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="545">
   <si>
     <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,1585 +71,1609 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
   </si>
   <si>
     <t>6,92%</t>
   </si>
   <si>
-    <t>4,18%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
   </si>
   <si>
     <t>10,83%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
   </si>
   <si>
     <t>89,17%</t>
   </si>
   <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
   </si>
   <si>
     <t>6,31%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
   </si>
   <si>
     <t>93,69%</t>
   </si>
   <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
   </si>
   <si>
     <t>8,08%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
   </si>
   <si>
     <t>91,92%</t>
   </si>
   <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,18%</t>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
   </si>
   <si>
     <t>98,11%</t>
   </si>
   <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
   </si>
   <si>
     <t>97,89%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
   </si>
   <si>
     <t>95,88%</t>
   </si>
   <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
+    <t>96,72%</t>
   </si>
 </sst>
 </file>
@@ -2061,7 +2085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51072BFD-7A87-4F55-9394-DC9F18E95F42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13DF3A0-D4A8-40FE-9E90-FCD6F35B77F7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2525,13 +2549,13 @@
         <v>21714</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2546,13 +2570,13 @@
         <v>315001</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>316</v>
@@ -2561,13 +2585,13 @@
         <v>317543</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>623</v>
@@ -2576,13 +2600,13 @@
         <v>632544</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,7 +2662,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2650,13 +2674,13 @@
         <v>11402</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -2665,13 +2689,13 @@
         <v>25314</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -2680,13 +2704,13 @@
         <v>36716</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2701,13 +2725,13 @@
         <v>347269</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>357</v>
@@ -2716,13 +2740,13 @@
         <v>346142</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>707</v>
@@ -2731,13 +2755,13 @@
         <v>693411</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,7 +2817,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2805,13 +2829,13 @@
         <v>895</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -2820,13 +2844,13 @@
         <v>10889</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -2835,13 +2859,13 @@
         <v>11784</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,13 +2880,13 @@
         <v>202413</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>188</v>
@@ -2871,13 +2895,13 @@
         <v>196779</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>393</v>
@@ -2886,13 +2910,13 @@
         <v>399192</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,7 +2972,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2960,13 +2984,13 @@
         <v>4752</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -2975,13 +2999,13 @@
         <v>18164</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>23</v>
@@ -2990,13 +3014,13 @@
         <v>22916</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,13 +3035,13 @@
         <v>266059</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>252</v>
@@ -3026,13 +3050,13 @@
         <v>259980</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>513</v>
@@ -3041,13 +3065,13 @@
         <v>526039</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,7 +3127,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3115,13 +3139,13 @@
         <v>18504</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -3130,13 +3154,13 @@
         <v>41532</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -3145,13 +3169,13 @@
         <v>60036</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,13 +3190,13 @@
         <v>596523</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="H23" s="7">
         <v>581</v>
@@ -3181,13 +3205,13 @@
         <v>596687</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>1161</v>
@@ -3196,13 +3220,13 @@
         <v>1193210</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,7 +3282,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3270,13 +3294,13 @@
         <v>18380</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -3285,13 +3309,13 @@
         <v>26266</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>44</v>
@@ -3300,13 +3324,13 @@
         <v>44646</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,13 +3345,13 @@
         <v>724397</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>719</v>
@@ -3336,13 +3360,13 @@
         <v>757245</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M26" s="7">
         <v>1436</v>
@@ -3351,7 +3375,7 @@
         <v>1481642</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>158</v>
@@ -3443,10 +3467,10 @@
         <v>163</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M28" s="7">
         <v>247</v>
@@ -3455,13 +3479,13 @@
         <v>252963</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,13 +3500,13 @@
         <v>3202248</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>3119</v>
@@ -3491,28 +3515,28 @@
         <v>3199512</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>6263</v>
       </c>
       <c r="N29" s="7">
-        <v>6401760</v>
+        <v>6401759</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3554,7 +3578,7 @@
         <v>6510</v>
       </c>
       <c r="N30" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3568,7 +3592,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3592,7 +3616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77860C1-FE9D-4427-8F40-84A0744CF022}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38CBBE8-008E-4FCB-9E07-7906670DC13E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3609,7 +3633,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3714,39 +3738,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3759,39 +3783,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,39 +3828,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,13 +3877,13 @@
         <v>8696</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -3868,13 +3892,13 @@
         <v>29540</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
@@ -3883,13 +3907,13 @@
         <v>38236</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,13 +3928,13 @@
         <v>496831</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>453</v>
@@ -3919,13 +3943,13 @@
         <v>493191</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>920</v>
@@ -3934,13 +3958,13 @@
         <v>990022</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,13 +4032,13 @@
         <v>4814</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -4023,13 +4047,13 @@
         <v>19348</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -4038,13 +4062,13 @@
         <v>24162</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,13 +4083,13 @@
         <v>318302</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>298</v>
@@ -4074,13 +4098,13 @@
         <v>320607</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>611</v>
@@ -4089,13 +4113,13 @@
         <v>638909</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,7 +4175,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4163,13 +4187,13 @@
         <v>11813</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>45</v>
@@ -4178,13 +4202,13 @@
         <v>49225</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>56</v>
@@ -4196,10 +4220,10 @@
         <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4238,13 @@
         <v>652373</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
         <v>574</v>
@@ -4229,13 +4253,13 @@
         <v>618078</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>1185</v>
@@ -4247,10 +4271,10 @@
         <v>27</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,7 +4330,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4318,13 +4342,13 @@
         <v>4170</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -4333,13 +4357,13 @@
         <v>20912</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -4348,13 +4372,13 @@
         <v>25082</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>231</v>
+        <v>55</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,13 +4393,13 @@
         <v>208448</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>49</v>
+        <v>238</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="H17" s="7">
         <v>193</v>
@@ -4384,13 +4408,13 @@
         <v>198679</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="M17" s="7">
         <v>385</v>
@@ -4399,13 +4423,13 @@
         <v>407127</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>238</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,7 +4485,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4473,13 +4497,13 @@
         <v>1993</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>239</v>
+        <v>33</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -4488,13 +4512,13 @@
         <v>14076</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>242</v>
+        <v>18</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -4503,13 +4527,13 @@
         <v>16068</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,13 +4548,13 @@
         <v>271988</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>247</v>
+        <v>43</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>248</v>
+        <v>157</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>254</v>
@@ -4539,13 +4563,13 @@
         <v>265064</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>251</v>
+        <v>29</v>
       </c>
       <c r="M20" s="7">
         <v>513</v>
@@ -4616,7 +4640,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4658,13 +4682,13 @@
         <v>53039</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,13 +4703,13 @@
         <v>654215</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H23" s="7">
         <v>595</v>
@@ -4694,13 +4718,13 @@
         <v>649387</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M23" s="7">
         <v>1205</v>
@@ -4709,13 +4733,13 @@
         <v>1303602</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4771,7 +4795,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4783,13 +4807,13 @@
         <v>5498</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>33</v>
+        <v>271</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -4798,13 +4822,13 @@
         <v>35463</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>167</v>
+        <v>274</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>38</v>
+        <v>275</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M25" s="7">
         <v>37</v>
@@ -4813,13 +4837,13 @@
         <v>40961</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,7 +4858,7 @@
         <v>771474</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>43</v>
+        <v>278</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>279</v>
@@ -4849,13 +4873,13 @@
         <v>786057</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>47</v>
+        <v>283</v>
       </c>
       <c r="M26" s="7">
         <v>1433</v>
@@ -4864,13 +4888,13 @@
         <v>1557531</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>284</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,7 +4983,7 @@
         <v>289</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>14</v>
+        <v>290</v>
       </c>
       <c r="M28" s="7">
         <v>235</v>
@@ -4968,7 +4992,7 @@
         <v>258585</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>291</v>
@@ -5007,19 +5031,19 @@
         <v>296</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>24</v>
+        <v>297</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M29" s="7">
         <v>6252</v>
       </c>
       <c r="N29" s="7">
-        <v>6704696</v>
+        <v>6704697</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>298</v>
+        <v>87</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>299</v>
@@ -5067,7 +5091,7 @@
         <v>6487</v>
       </c>
       <c r="N30" s="7">
-        <v>6963281</v>
+        <v>6963282</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5081,7 +5105,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5105,7 +5129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA571891-957D-45D2-AB8F-533A15EA3955}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C07168-93C7-4917-9484-6C569F8728E5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5265,7 +5289,7 @@
         <v>309</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,13 +5304,13 @@
         <v>290642</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H5" s="7">
         <v>258</v>
@@ -5295,13 +5319,13 @@
         <v>267941</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M5" s="7">
         <v>521</v>
@@ -5310,13 +5334,13 @@
         <v>558583</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5408,13 @@
         <v>6044</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -5399,13 +5423,13 @@
         <v>11662</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>321</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -5414,13 +5438,13 @@
         <v>17706</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>91</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,13 +5459,13 @@
         <v>496531</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H8" s="7">
         <v>473</v>
@@ -5450,13 +5474,13 @@
         <v>511422</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>328</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>330</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="M8" s="7">
         <v>942</v>
@@ -5465,13 +5489,13 @@
         <v>1007953</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>100</v>
+        <v>332</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,13 +5563,13 @@
         <v>1590</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>333</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -5554,13 +5578,13 @@
         <v>11750</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>334</v>
+        <v>222</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>211</v>
+        <v>335</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -5569,13 +5593,13 @@
         <v>13340</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5590,13 +5614,13 @@
         <v>316975</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>340</v>
+        <v>171</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H11" s="7">
         <v>321</v>
@@ -5605,13 +5629,13 @@
         <v>324559</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M11" s="7">
         <v>654</v>
@@ -5682,7 +5706,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5712,7 +5736,7 @@
         <v>349</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>245</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>350</v>
@@ -5766,7 +5790,7 @@
         <v>358</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>98</v>
+        <v>250</v>
       </c>
       <c r="M14" s="7">
         <v>678</v>
@@ -5837,7 +5861,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5852,10 +5876,10 @@
         <v>362</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>146</v>
+        <v>257</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5867,10 +5891,10 @@
         <v>363</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -5879,13 +5903,13 @@
         <v>7980</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,13 +5924,13 @@
         <v>210330</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>156</v>
+        <v>264</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>216</v>
@@ -5915,13 +5939,13 @@
         <v>211498</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>371</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>372</v>
+        <v>263</v>
       </c>
       <c r="M17" s="7">
         <v>427</v>
@@ -5930,13 +5954,13 @@
         <v>421828</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,7 +6016,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6004,13 +6028,13 @@
         <v>2896</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>377</v>
+        <v>95</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -6019,13 +6043,13 @@
         <v>10311</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -6034,13 +6058,13 @@
         <v>13207</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,13 +6079,13 @@
         <v>260227</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>384</v>
+        <v>104</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="H20" s="7">
         <v>253</v>
@@ -6070,13 +6094,13 @@
         <v>262804</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M20" s="7">
         <v>509</v>
@@ -6085,13 +6109,13 @@
         <v>523031</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>386</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6147,7 +6171,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6159,13 +6183,13 @@
         <v>16236</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -6174,13 +6198,13 @@
         <v>25942</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
@@ -6189,13 +6213,13 @@
         <v>42179</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6210,13 +6234,13 @@
         <v>640322</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="H23" s="7">
         <v>622</v>
@@ -6225,13 +6249,13 @@
         <v>665352</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="M23" s="7">
         <v>1187</v>
@@ -6240,13 +6264,13 @@
         <v>1305673</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6302,7 +6326,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6314,13 +6338,13 @@
         <v>6791</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>405</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>406</v>
+        <v>161</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -6329,13 +6353,13 @@
         <v>29680</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>408</v>
+        <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="M25" s="7">
         <v>34</v>
@@ -6344,13 +6368,13 @@
         <v>36471</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6365,13 +6389,13 @@
         <v>771792</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>414</v>
+        <v>171</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="H26" s="7">
         <v>728</v>
@@ -6380,13 +6404,13 @@
         <v>796487</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>418</v>
+        <v>21</v>
       </c>
       <c r="M26" s="7">
         <v>1471</v>
@@ -6395,13 +6419,13 @@
         <v>1568279</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6469,13 +6493,13 @@
         <v>43343</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>245</v>
+        <v>418</v>
       </c>
       <c r="H28" s="7">
         <v>137</v>
@@ -6484,13 +6508,13 @@
         <v>147085</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>106</v>
+        <v>419</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>338</v>
+        <v>420</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="M28" s="7">
         <v>180</v>
@@ -6499,13 +6523,13 @@
         <v>190428</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>68</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6520,13 +6544,13 @@
         <v>3351007</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>254</v>
+        <v>424</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H29" s="7">
         <v>3201</v>
@@ -6535,13 +6559,13 @@
         <v>3397457</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>114</v>
+        <v>426</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>344</v>
+        <v>428</v>
       </c>
       <c r="M29" s="7">
         <v>6389</v>
@@ -6550,13 +6574,13 @@
         <v>6748464</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>431</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6612,7 +6636,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6636,7 +6660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1A5133-D837-4954-899F-3C67F018F924}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22742070-2A81-46D5-99F9-875887AE7CC4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6653,7 +6677,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6760,13 +6784,13 @@
         <v>4403</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>198</v>
+        <v>432</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>433</v>
+        <v>203</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -6775,13 +6799,13 @@
         <v>22148</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
@@ -6790,13 +6814,13 @@
         <v>26551</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>290</v>
+        <v>201</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>380</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6811,13 +6835,13 @@
         <v>255895</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>414</v>
+        <v>437</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H5" s="7">
         <v>496</v>
@@ -6844,10 +6868,10 @@
         <v>442</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>386</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>298</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6915,13 +6939,13 @@
         <v>5684</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>443</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>186</v>
+        <v>391</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -6930,13 +6954,13 @@
         <v>14305</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>320</v>
+        <v>444</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>274</v>
+        <v>445</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>444</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
@@ -6945,13 +6969,13 @@
         <v>19989</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>162</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6966,13 +6990,13 @@
         <v>512543</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>196</v>
+        <v>400</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H8" s="7">
         <v>695</v>
@@ -6981,13 +7005,13 @@
         <v>538911</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>326</v>
+        <v>449</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>447</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>279</v>
+        <v>450</v>
       </c>
       <c r="M8" s="7">
         <v>1071</v>
@@ -6996,13 +7020,13 @@
         <v>1051454</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>169</v>
+        <v>452</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7070,13 +7094,13 @@
         <v>13931</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>450</v>
+        <v>36</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -7085,13 +7109,13 @@
         <v>29234</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -7100,13 +7124,13 @@
         <v>43165</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>456</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7121,13 +7145,13 @@
         <v>307789</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>460</v>
+        <v>46</v>
       </c>
       <c r="H11" s="7">
         <v>488</v>
@@ -7136,13 +7160,13 @@
         <v>344050</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M11" s="7">
         <v>830</v>
@@ -7151,13 +7175,13 @@
         <v>651838</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>466</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7213,7 +7237,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7228,10 +7252,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -7246,7 +7270,7 @@
         <v>469</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>35</v>
+        <v>470</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -7255,13 +7279,13 @@
         <v>14504</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>472</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7276,13 +7300,13 @@
         <v>318355</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>438</v>
+        <v>473</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>473</v>
+        <v>410</v>
       </c>
       <c r="H14" s="7">
         <v>581</v>
@@ -7294,10 +7318,10 @@
         <v>474</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>44</v>
+        <v>475</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M14" s="7">
         <v>869</v>
@@ -7306,10 +7330,10 @@
         <v>735936</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>477</v>
+        <v>372</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>478</v>
@@ -7368,7 +7392,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7383,7 +7407,7 @@
         <v>479</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>411</v>
+        <v>96</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>480</v>
@@ -7398,10 +7422,10 @@
         <v>481</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>483</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -7410,13 +7434,13 @@
         <v>26447</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7431,13 +7455,13 @@
         <v>190625</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>488</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>421</v>
+        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>446</v>
@@ -7446,13 +7470,13 @@
         <v>211579</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>490</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>491</v>
+        <v>383</v>
       </c>
       <c r="M17" s="7">
         <v>715</v>
@@ -7461,13 +7485,13 @@
         <v>402204</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7523,7 +7547,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7535,13 +7559,13 @@
         <v>7925</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>495</v>
+        <v>162</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>274</v>
+        <v>418</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="H19" s="7">
         <v>40</v>
@@ -7550,13 +7574,13 @@
         <v>18917</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="M19" s="7">
         <v>54</v>
@@ -7565,13 +7589,13 @@
         <v>26842</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>500</v>
+        <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>185</v>
+        <v>497</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>501</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7586,13 +7610,13 @@
         <v>269298</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>502</v>
+        <v>170</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>279</v>
+        <v>424</v>
       </c>
       <c r="H20" s="7">
         <v>420</v>
@@ -7601,13 +7625,13 @@
         <v>256705</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="M20" s="7">
         <v>777</v>
@@ -7616,13 +7640,13 @@
         <v>526003</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>507</v>
+        <v>22</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>508</v>
+        <v>383</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>194</v>
+        <v>502</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7678,7 +7702,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7690,13 +7714,13 @@
         <v>27551</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>455</v>
+        <v>505</v>
       </c>
       <c r="H22" s="7">
         <v>92</v>
@@ -7705,13 +7729,13 @@
         <v>63776</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>510</v>
+        <v>459</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>72</v>
+        <v>506</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="M22" s="7">
         <v>123</v>
@@ -7720,13 +7744,13 @@
         <v>91327</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>353</v>
+        <v>508</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>259</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7741,13 +7765,13 @@
         <v>600203</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>464</v>
+        <v>511</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="H23" s="7">
         <v>868</v>
@@ -7756,13 +7780,13 @@
         <v>740427</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M23" s="7">
         <v>1436</v>
@@ -7771,13 +7795,13 @@
         <v>1340630</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>360</v>
+        <v>515</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>516</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>269</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7833,7 +7857,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7848,7 +7872,7 @@
         <v>517</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>518</v>
@@ -7860,13 +7884,13 @@
         <v>16343</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>69</v>
+        <v>519</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M25" s="7">
         <v>25</v>
@@ -7875,10 +7899,10 @@
         <v>18384</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>522</v>
+        <v>109</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>523</v>
@@ -7902,7 +7926,7 @@
         <v>525</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H26" s="7">
         <v>1037</v>
@@ -7911,13 +7935,13 @@
         <v>848688</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M26" s="7">
         <v>1797</v>
@@ -7926,13 +7950,13 @@
         <v>1706075</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>530</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8000,13 +8024,13 @@
         <v>71542</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>89</v>
+        <v>531</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>245</v>
+        <v>532</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>186</v>
+        <v>533</v>
       </c>
       <c r="H28" s="7">
         <v>328</v>
@@ -8015,13 +8039,13 @@
         <v>195666</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>531</v>
+        <v>72</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="M28" s="7">
         <v>417</v>
@@ -8030,13 +8054,13 @@
         <v>267209</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>200</v>
+        <v>536</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>444</v>
+        <v>537</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8048,16 +8072,16 @@
         <v>3285</v>
       </c>
       <c r="D29" s="7">
-        <v>3312095</v>
+        <v>3312094</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>96</v>
+        <v>538</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>196</v>
+        <v>539</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>254</v>
+        <v>540</v>
       </c>
       <c r="H29" s="7">
         <v>5031</v>
@@ -8066,13 +8090,13 @@
         <v>3607196</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>534</v>
+        <v>80</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="M29" s="7">
         <v>8316</v>
@@ -8081,13 +8105,13 @@
         <v>6919289</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>447</v>
+        <v>543</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>208</v>
+        <v>544</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8099,7 +8123,7 @@
         <v>3374</v>
       </c>
       <c r="D30" s="7">
-        <v>3383637</v>
+        <v>3383636</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8143,7 +8167,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A03-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A03-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2220BDDD-5087-42FD-AE54-9CB6DCF092A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E3104F6-737C-47BD-BA55-C2D9E12C8C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{88E64F1C-3A22-408E-82AF-95B7824F4294}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{92D4FE47-F44B-4E33-869D-8A3296DE7646}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="564">
   <si>
     <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -581,7 +581,46 @@
     <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
   </si>
   <si>
     <t>1,72%</t>
@@ -605,9 +644,6 @@
     <t>3,72%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
     <t>5,51%</t>
   </si>
   <si>
@@ -635,9 +671,6 @@
     <t>94,49%</t>
   </si>
   <si>
-    <t>97,42%</t>
-  </si>
-  <si>
     <t>1,49%</t>
   </si>
   <si>
@@ -692,378 +725,378 @@
     <t>97,59%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
   </si>
   <si>
     <t>3,49%</t>
   </si>
   <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
   </si>
   <si>
     <t>96,51%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
     <t>93,88%</t>
   </si>
   <si>
@@ -1334,346 +1367,370 @@
     <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
   </si>
   <si>
     <t>11,0%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
   </si>
   <si>
     <t>89,0%</t>
   </si>
   <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
   </si>
   <si>
     <t>97,19%</t>
   </si>
   <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
+    <t>95,19%</t>
   </si>
   <si>
     <t>98,35%</t>
   </si>
   <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
   </si>
 </sst>
 </file>
@@ -2085,7 +2142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13DF3A0-D4A8-40FE-9E90-FCD6F35B77F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0317A26-E6BC-4328-A8D6-5C66DDC56D61}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3512,7 +3569,7 @@
         <v>3119</v>
       </c>
       <c r="I29" s="7">
-        <v>3199512</v>
+        <v>3199511</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>172</v>
@@ -3563,7 +3620,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3616,7 +3673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38CBBE8-008E-4FCB-9E07-7906670DC13E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064B9A8F-5C13-41AC-BAFA-1428F0332E5F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3734,43 +3791,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6508</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="I4" s="7">
+        <v>16516</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="N4" s="7">
+        <v>23025</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,43 +3842,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>272</v>
+      </c>
+      <c r="D5" s="7">
+        <v>283695</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>234</v>
+      </c>
+      <c r="I5" s="7">
+        <v>262813</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>66</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>506</v>
+      </c>
+      <c r="N5" s="7">
+        <v>546507</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,43 +3893,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>278</v>
+      </c>
+      <c r="D6" s="7">
+        <v>290203</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>249</v>
+      </c>
+      <c r="I6" s="7">
+        <v>279329</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>527</v>
+      </c>
+      <c r="N6" s="7">
+        <v>569532</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,13 +3952,13 @@
         <v>8696</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -3892,13 +3967,13 @@
         <v>29540</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
@@ -3907,13 +3982,13 @@
         <v>38236</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,13 +4003,13 @@
         <v>496831</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="H8" s="7">
         <v>453</v>
@@ -3943,13 +4018,13 @@
         <v>493191</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="M8" s="7">
         <v>920</v>
@@ -3958,13 +4033,13 @@
         <v>990022</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4107,13 @@
         <v>4814</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -4047,13 +4122,13 @@
         <v>19348</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -4062,13 +4137,13 @@
         <v>24162</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,13 +4158,13 @@
         <v>318302</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H11" s="7">
         <v>298</v>
@@ -4098,13 +4173,13 @@
         <v>320607</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="M11" s="7">
         <v>611</v>
@@ -4113,13 +4188,13 @@
         <v>638909</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,49 +4256,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>11813</v>
+        <v>5304</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="H13" s="7">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I13" s="7">
-        <v>49225</v>
+        <v>32709</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="M13" s="7">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="N13" s="7">
-        <v>61038</v>
+        <v>38013</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>17</v>
+        <v>234</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,49 +4307,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>611</v>
+        <v>339</v>
       </c>
       <c r="D14" s="7">
-        <v>652373</v>
+        <v>368678</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>23</v>
+        <v>239</v>
       </c>
       <c r="H14" s="7">
-        <v>574</v>
+        <v>340</v>
       </c>
       <c r="I14" s="7">
-        <v>618078</v>
+        <v>355265</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="M14" s="7">
-        <v>1185</v>
+        <v>679</v>
       </c>
       <c r="N14" s="7">
-        <v>1270451</v>
+        <v>723943</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>27</v>
+        <v>243</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,10 +4358,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>622</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>664186</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4298,10 +4373,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>619</v>
+        <v>370</v>
       </c>
       <c r="I15" s="7">
-        <v>667303</v>
+        <v>387974</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4313,10 +4388,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1241</v>
+        <v>714</v>
       </c>
       <c r="N15" s="7">
-        <v>1331489</v>
+        <v>761956</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4342,10 +4417,10 @@
         <v>4170</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -4357,13 +4432,13 @@
         <v>20912</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -4372,13 +4447,13 @@
         <v>25082</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,13 +4468,13 @@
         <v>208448</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="H17" s="7">
         <v>193</v>
@@ -4408,13 +4483,13 @@
         <v>198679</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="M17" s="7">
         <v>385</v>
@@ -4423,10 +4498,10 @@
         <v>407127</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>65</v>
@@ -4512,13 +4587,13 @@
         <v>14076</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -4527,13 +4602,13 @@
         <v>16068</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,10 +4638,10 @@
         <v>265064</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>29</v>
@@ -4578,13 +4653,13 @@
         <v>537053</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,13 +4727,13 @@
         <v>8573</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -4667,13 +4742,13 @@
         <v>44466</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
         <v>49</v>
@@ -4685,10 +4760,10 @@
         <v>110</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +4778,13 @@
         <v>654215</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="H23" s="7">
         <v>595</v>
@@ -4718,13 +4793,13 @@
         <v>649387</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="M23" s="7">
         <v>1205</v>
@@ -4736,10 +4811,10 @@
         <v>118</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4882,13 @@
         <v>5498</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -4822,13 +4897,13 @@
         <v>35463</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="M25" s="7">
         <v>37</v>
@@ -4837,13 +4912,13 @@
         <v>40961</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,13 +4933,13 @@
         <v>771474</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="H26" s="7">
         <v>723</v>
@@ -4873,13 +4948,13 @@
         <v>786057</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="M26" s="7">
         <v>1433</v>
@@ -4888,10 +4963,10 @@
         <v>1557531</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>41</v>
@@ -4962,13 +5037,13 @@
         <v>45556</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="H28" s="7">
         <v>195</v>
@@ -4977,13 +5052,13 @@
         <v>213030</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="M28" s="7">
         <v>235</v>
@@ -4995,10 +5070,10 @@
         <v>77</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,13 +5088,13 @@
         <v>3373632</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="H29" s="7">
         <v>3090</v>
@@ -5028,13 +5103,13 @@
         <v>3331064</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="M29" s="7">
         <v>6252</v>
@@ -5046,10 +5121,10 @@
         <v>87</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,7 +5204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C07168-93C7-4917-9484-6C569F8728E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1A44EC-01E5-4671-82A8-119E21385386}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5146,7 +5221,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5253,13 +5328,13 @@
         <v>3119</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -5268,13 +5343,13 @@
         <v>20762</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -5283,13 +5358,13 @@
         <v>23881</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,13 +5379,13 @@
         <v>290642</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="H5" s="7">
         <v>258</v>
@@ -5319,13 +5394,13 @@
         <v>267941</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="M5" s="7">
         <v>521</v>
@@ -5334,13 +5409,13 @@
         <v>558583</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,13 +5483,13 @@
         <v>6044</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -5426,10 +5501,10 @@
         <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -5438,13 +5513,13 @@
         <v>17706</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5534,13 @@
         <v>496531</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="H8" s="7">
         <v>473</v>
@@ -5477,10 +5552,10 @@
         <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="M8" s="7">
         <v>942</v>
@@ -5489,13 +5564,13 @@
         <v>1007953</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,7 +5638,7 @@
         <v>1590</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>90</v>
@@ -5578,13 +5653,13 @@
         <v>11750</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>222</v>
+        <v>344</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -5593,13 +5668,13 @@
         <v>13340</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,7 +5689,7 @@
         <v>316975</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>171</v>
@@ -5629,13 +5704,13 @@
         <v>324559</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>230</v>
+        <v>351</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="M11" s="7">
         <v>654</v>
@@ -5644,13 +5719,13 @@
         <v>641534</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,13 +5793,13 @@
         <v>5775</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -5733,13 +5808,13 @@
         <v>29888</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -5748,13 +5823,13 @@
         <v>35664</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,13 +5844,13 @@
         <v>364189</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="H14" s="7">
         <v>330</v>
@@ -5784,13 +5859,13 @@
         <v>357395</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
         <v>678</v>
@@ -5799,13 +5874,13 @@
         <v>721583</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,13 +5948,13 @@
         <v>891</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5888,13 +5963,13 @@
         <v>7089</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -5903,13 +5978,13 @@
         <v>7980</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,10 +5999,10 @@
         <v>210330</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>100</v>
@@ -5939,13 +6014,13 @@
         <v>211498</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="M17" s="7">
         <v>427</v>
@@ -5954,13 +6029,13 @@
         <v>421828</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6028,7 +6103,7 @@
         <v>2896</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>52</v>
@@ -6043,13 +6118,13 @@
         <v>10311</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -6058,13 +6133,13 @@
         <v>13207</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6079,7 +6154,7 @@
         <v>260227</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>104</v>
@@ -6094,13 +6169,13 @@
         <v>262804</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="M20" s="7">
         <v>509</v>
@@ -6109,13 +6184,13 @@
         <v>523031</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6186,10 +6261,10 @@
         <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -6198,13 +6273,13 @@
         <v>25942</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
@@ -6213,13 +6288,13 @@
         <v>42179</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6237,10 +6312,10 @@
         <v>152</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="H23" s="7">
         <v>622</v>
@@ -6249,13 +6324,13 @@
         <v>665352</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="M23" s="7">
         <v>1187</v>
@@ -6264,13 +6339,13 @@
         <v>1305673</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6338,10 +6413,10 @@
         <v>6791</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>161</v>
@@ -6353,13 +6428,13 @@
         <v>29680</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="M25" s="7">
         <v>34</v>
@@ -6368,13 +6443,13 @@
         <v>36471</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6389,13 +6464,13 @@
         <v>771792</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="H26" s="7">
         <v>728</v>
@@ -6404,10 +6479,10 @@
         <v>796487</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>21</v>
@@ -6419,13 +6494,13 @@
         <v>1568279</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6493,13 +6568,13 @@
         <v>43343</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="H28" s="7">
         <v>137</v>
@@ -6508,13 +6583,13 @@
         <v>147085</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="M28" s="7">
         <v>180</v>
@@ -6523,13 +6598,13 @@
         <v>190428</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6544,13 +6619,13 @@
         <v>3351007</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="H29" s="7">
         <v>3201</v>
@@ -6559,13 +6634,13 @@
         <v>3397457</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="M29" s="7">
         <v>6389</v>
@@ -6574,13 +6649,13 @@
         <v>6748464</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6660,7 +6735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22742070-2A81-46D5-99F9-875887AE7CC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB59B6DF-5915-42EC-915C-BA761CA22EFB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6677,7 +6752,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6781,46 +6856,46 @@
         <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>4403</v>
+        <v>4807</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>203</v>
+        <v>444</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
       </c>
       <c r="I4" s="7">
-        <v>22148</v>
+        <v>23327</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
       </c>
       <c r="N4" s="7">
-        <v>26551</v>
+        <v>28134</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6832,46 +6907,46 @@
         <v>325</v>
       </c>
       <c r="D5" s="7">
-        <v>255895</v>
+        <v>306636</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>213</v>
+        <v>451</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="H5" s="7">
         <v>496</v>
       </c>
       <c r="I5" s="7">
-        <v>249255</v>
+        <v>266308</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="M5" s="7">
         <v>821</v>
       </c>
       <c r="N5" s="7">
-        <v>505149</v>
+        <v>572943</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>457</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>209</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6883,7 +6958,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -6898,7 +6973,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -6913,7 +6988,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -6936,46 +7011,46 @@
         <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>5684</v>
+        <v>5450</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>374</v>
+        <v>458</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>391</v>
+        <v>460</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
       </c>
       <c r="I7" s="7">
-        <v>14305</v>
+        <v>13001</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>386</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
       </c>
       <c r="N7" s="7">
-        <v>19989</v>
+        <v>18452</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>320</v>
+        <v>464</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6987,46 +7062,46 @@
         <v>376</v>
       </c>
       <c r="D8" s="7">
-        <v>512543</v>
+        <v>511943</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>381</v>
+        <v>466</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>400</v>
+        <v>467</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="H8" s="7">
         <v>695</v>
       </c>
       <c r="I8" s="7">
-        <v>538911</v>
+        <v>500724</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>393</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="M8" s="7">
         <v>1071</v>
       </c>
       <c r="N8" s="7">
-        <v>1051454</v>
+        <v>1012666</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>327</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7038,7 +7113,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7053,7 +7128,7 @@
         <v>715</v>
       </c>
       <c r="I9" s="7">
-        <v>553216</v>
+        <v>513725</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7068,7 +7143,7 @@
         <v>1096</v>
       </c>
       <c r="N9" s="7">
-        <v>1071443</v>
+        <v>1031118</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7091,46 +7166,46 @@
         <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>13931</v>
+        <v>13476</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>453</v>
+        <v>474</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>475</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>454</v>
+        <v>476</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
       </c>
       <c r="I10" s="7">
-        <v>29234</v>
+        <v>27107</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>455</v>
+        <v>477</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
       </c>
       <c r="N10" s="7">
-        <v>43165</v>
+        <v>40582</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>458</v>
+        <v>480</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>481</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7142,46 +7217,46 @@
         <v>342</v>
       </c>
       <c r="D11" s="7">
-        <v>307789</v>
+        <v>302084</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>46</v>
+        <v>485</v>
       </c>
       <c r="H11" s="7">
         <v>488</v>
       </c>
       <c r="I11" s="7">
-        <v>344050</v>
+        <v>322021</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="M11" s="7">
         <v>830</v>
       </c>
       <c r="N11" s="7">
-        <v>651838</v>
+        <v>624106</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>139</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7193,7 +7268,7 @@
         <v>359</v>
       </c>
       <c r="D12" s="7">
-        <v>321720</v>
+        <v>315560</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7208,7 +7283,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7223,7 +7298,7 @@
         <v>895</v>
       </c>
       <c r="N12" s="7">
-        <v>695003</v>
+        <v>664688</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7246,46 +7321,46 @@
         <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>3885</v>
+        <v>3850</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>51</v>
+        <v>492</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>467</v>
+        <v>494</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
       </c>
       <c r="I13" s="7">
-        <v>10619</v>
+        <v>9837</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>468</v>
+        <v>58</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>469</v>
+        <v>348</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
       </c>
       <c r="N13" s="7">
-        <v>14504</v>
+        <v>13687</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>471</v>
+        <v>161</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>367</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7297,46 +7372,46 @@
         <v>288</v>
       </c>
       <c r="D14" s="7">
-        <v>318355</v>
+        <v>308707</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>60</v>
+        <v>498</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>473</v>
+        <v>499</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>410</v>
+        <v>500</v>
       </c>
       <c r="H14" s="7">
         <v>581</v>
       </c>
       <c r="I14" s="7">
-        <v>417581</v>
+        <v>465550</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>474</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>475</v>
+        <v>501</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>476</v>
+        <v>356</v>
       </c>
       <c r="M14" s="7">
         <v>869</v>
       </c>
       <c r="N14" s="7">
-        <v>735936</v>
+        <v>774257</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>477</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>372</v>
+        <v>502</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>478</v>
+        <v>503</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7348,7 +7423,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7363,7 +7438,7 @@
         <v>598</v>
       </c>
       <c r="I15" s="7">
-        <v>428200</v>
+        <v>475387</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7378,7 +7453,7 @@
         <v>890</v>
       </c>
       <c r="N15" s="7">
-        <v>750440</v>
+        <v>787944</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7401,46 +7476,46 @@
         <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>6123</v>
+        <v>5557</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>96</v>
+        <v>505</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>480</v>
+        <v>506</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
       </c>
       <c r="I16" s="7">
-        <v>20324</v>
+        <v>18556</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>481</v>
+        <v>507</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>377</v>
+        <v>508</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>482</v>
+        <v>509</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
       </c>
       <c r="N16" s="7">
-        <v>26447</v>
+        <v>24113</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>483</v>
+        <v>510</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>484</v>
+        <v>511</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>485</v>
+        <v>512</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7452,46 +7527,46 @@
         <v>269</v>
       </c>
       <c r="D17" s="7">
-        <v>190625</v>
+        <v>173185</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>486</v>
+        <v>513</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>487</v>
+        <v>514</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>515</v>
       </c>
       <c r="H17" s="7">
         <v>446</v>
       </c>
       <c r="I17" s="7">
-        <v>211579</v>
+        <v>190100</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>488</v>
+        <v>516</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>383</v>
+        <v>518</v>
       </c>
       <c r="M17" s="7">
         <v>715</v>
       </c>
       <c r="N17" s="7">
-        <v>402204</v>
+        <v>363285</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>490</v>
+        <v>519</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>491</v>
+        <v>520</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>492</v>
+        <v>521</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7503,7 +7578,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7518,7 +7593,7 @@
         <v>492</v>
       </c>
       <c r="I18" s="7">
-        <v>231903</v>
+        <v>208656</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7533,7 +7608,7 @@
         <v>771</v>
       </c>
       <c r="N18" s="7">
-        <v>428651</v>
+        <v>387398</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7556,46 +7631,46 @@
         <v>14</v>
       </c>
       <c r="D19" s="7">
-        <v>7925</v>
+        <v>7566</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>162</v>
+        <v>522</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>418</v>
+        <v>523</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>493</v>
+        <v>524</v>
       </c>
       <c r="H19" s="7">
         <v>40</v>
       </c>
       <c r="I19" s="7">
-        <v>18917</v>
+        <v>17561</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>494</v>
+        <v>525</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>495</v>
+        <v>271</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>496</v>
+        <v>526</v>
       </c>
       <c r="M19" s="7">
         <v>54</v>
       </c>
       <c r="N19" s="7">
-        <v>26842</v>
+        <v>25127</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>13</v>
+        <v>271</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>377</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7607,46 +7682,46 @@
         <v>357</v>
       </c>
       <c r="D20" s="7">
-        <v>269298</v>
+        <v>262070</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>170</v>
+        <v>527</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>498</v>
+        <v>528</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>424</v>
+        <v>529</v>
       </c>
       <c r="H20" s="7">
         <v>420</v>
       </c>
       <c r="I20" s="7">
-        <v>256705</v>
+        <v>239495</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>499</v>
+        <v>530</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>501</v>
+        <v>279</v>
       </c>
       <c r="M20" s="7">
         <v>777</v>
       </c>
       <c r="N20" s="7">
-        <v>526003</v>
+        <v>501565</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>22</v>
+        <v>279</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>383</v>
+        <v>277</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7658,7 +7733,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7673,7 +7748,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7688,7 +7763,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7711,46 +7786,46 @@
         <v>31</v>
       </c>
       <c r="D22" s="7">
-        <v>27551</v>
+        <v>26415</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>503</v>
+        <v>532</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>504</v>
+        <v>533</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>505</v>
+        <v>534</v>
       </c>
       <c r="H22" s="7">
         <v>92</v>
       </c>
       <c r="I22" s="7">
-        <v>63776</v>
+        <v>58118</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>459</v>
+        <v>535</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>506</v>
+        <v>533</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>507</v>
+        <v>183</v>
       </c>
       <c r="M22" s="7">
         <v>123</v>
       </c>
       <c r="N22" s="7">
-        <v>91327</v>
+        <v>84533</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>508</v>
+        <v>446</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>431</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>509</v>
+        <v>536</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7762,46 +7837,46 @@
         <v>568</v>
       </c>
       <c r="D23" s="7">
-        <v>600203</v>
+        <v>597864</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>510</v>
+        <v>537</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>511</v>
+        <v>538</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>512</v>
+        <v>539</v>
       </c>
       <c r="H23" s="7">
         <v>868</v>
       </c>
       <c r="I23" s="7">
-        <v>740427</v>
+        <v>791147</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>466</v>
+        <v>540</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>513</v>
+        <v>190</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>514</v>
+        <v>539</v>
       </c>
       <c r="M23" s="7">
         <v>1436</v>
       </c>
       <c r="N23" s="7">
-        <v>1340630</v>
+        <v>1389011</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>515</v>
+        <v>455</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7813,7 +7888,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7828,7 +7903,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -7843,7 +7918,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -7866,46 +7941,46 @@
         <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>2041</v>
+        <v>1754</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>90</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>518</v>
+        <v>543</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
       </c>
       <c r="I25" s="7">
-        <v>16343</v>
+        <v>13663</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>519</v>
+        <v>544</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>520</v>
+        <v>492</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>521</v>
+        <v>36</v>
       </c>
       <c r="M25" s="7">
         <v>25</v>
       </c>
       <c r="N25" s="7">
-        <v>18384</v>
+        <v>15417</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>522</v>
+        <v>428</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>109</v>
+        <v>247</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>523</v>
+        <v>545</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7917,13 +7992,13 @@
         <v>760</v>
       </c>
       <c r="D26" s="7">
-        <v>857387</v>
+        <v>926966</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>524</v>
+        <v>546</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>525</v>
+        <v>547</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>100</v>
@@ -7932,31 +8007,31 @@
         <v>1037</v>
       </c>
       <c r="I26" s="7">
-        <v>848688</v>
+        <v>701188</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>526</v>
+        <v>548</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>527</v>
+        <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>528</v>
+        <v>498</v>
       </c>
       <c r="M26" s="7">
         <v>1797</v>
       </c>
       <c r="N26" s="7">
-        <v>1706075</v>
+        <v>1628155</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>529</v>
+        <v>436</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>119</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7968,7 +8043,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -7983,7 +8058,7 @@
         <v>1060</v>
       </c>
       <c r="I27" s="7">
-        <v>865031</v>
+        <v>714851</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -7998,7 +8073,7 @@
         <v>1822</v>
       </c>
       <c r="N27" s="7">
-        <v>1724459</v>
+        <v>1643572</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8021,46 +8096,46 @@
         <v>89</v>
       </c>
       <c r="D28" s="7">
-        <v>71542</v>
+        <v>68876</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>531</v>
+        <v>550</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>532</v>
+        <v>96</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="H28" s="7">
         <v>328</v>
       </c>
       <c r="I28" s="7">
-        <v>195666</v>
+        <v>181169</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>72</v>
+        <v>552</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="M28" s="7">
         <v>417</v>
       </c>
       <c r="N28" s="7">
-        <v>267209</v>
+        <v>250045</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>187</v>
+        <v>555</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>537</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8072,46 +8147,46 @@
         <v>3285</v>
       </c>
       <c r="D29" s="7">
-        <v>3312094</v>
+        <v>3389454</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>538</v>
+        <v>557</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>539</v>
+        <v>558</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>540</v>
+        <v>106</v>
       </c>
       <c r="H29" s="7">
         <v>5031</v>
       </c>
       <c r="I29" s="7">
-        <v>3607196</v>
+        <v>3476533</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>80</v>
+        <v>559</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>542</v>
+        <v>561</v>
       </c>
       <c r="M29" s="7">
         <v>8316</v>
       </c>
       <c r="N29" s="7">
-        <v>6919289</v>
+        <v>6865987</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>196</v>
+        <v>562</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>543</v>
+        <v>122</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8123,7 +8198,7 @@
         <v>3374</v>
       </c>
       <c r="D30" s="7">
-        <v>3383636</v>
+        <v>3458330</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8138,7 +8213,7 @@
         <v>5359</v>
       </c>
       <c r="I30" s="7">
-        <v>3802862</v>
+        <v>3657702</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8153,7 +8228,7 @@
         <v>8733</v>
       </c>
       <c r="N30" s="7">
-        <v>7186498</v>
+        <v>7116032</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
